--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr4_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr4_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="13.64453125" customWidth="true"/>
-    <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="14.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="14.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25950876074053686</v>
+        <v>0.23362532321578527</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.24724879741489716</v>
+        <v>0.04492913373472146</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.011664278086858486</v>
+        <v>-0.21219307108337504</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00015353173046142387</v>
+        <v>-0.011875454191260432</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0011151638143909934</v>
+        <v>0.016550045596801222</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00055424673148382988</v>
+        <v>0.0043330669660649121</v>
       </c>
       <c r="H3" s="0">
-        <v>1.1580986656620813e-05</v>
+        <v>0.0013812970162934127</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00010223028810030354</v>
+        <v>0.014649561770091203</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>4.952299830440765e-06</v>
+        <v>-0.0015416355556790995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.34327823055792667</v>
+        <v>0.3444573671236002</v>
       </c>
       <c r="C4" s="0">
-        <v>0.10063115784848206</v>
+        <v>0.07298723185828275</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-6.5729006486339224e-05</v>
+        <v>0.00017711482905333857</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.000125042379226317</v>
+        <v>0.0027829449117517105</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00014016434455564473</v>
+        <v>-0.011170124030763224</v>
       </c>
       <c r="I4" s="0">
-        <v>3.458392259264323e-05</v>
+        <v>0.21932403426043573</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.006512059703580755</v>
+        <v>0.011368968923880712</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0022066868058038536</v>
+        <v>0.0040580626362377581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33581451777837734</v>
+        <v>0.25906750344409291</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.012757810784301391</v>
+        <v>-0.00032439559542714325</v>
       </c>
       <c r="E5" s="0">
-        <v>5.775461469072172e-05</v>
+        <v>0.015947430737107738</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00051789755479928054</v>
+        <v>-0.14961648979339154</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00031869281045694979</v>
+        <v>-0.0072822774703315144</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00065568100702102111</v>
+        <v>-0.0078545621290443089</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00097735059251001098</v>
+        <v>0.022144300788801214</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0047154690602300153</v>
+        <v>0.041596129782778268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.22223511248636846</v>
+        <v>-0.06011979060645567</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.13364181313433535</v>
+        <v>-0.23855612588006644</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.6002037822652034e-05</v>
+        <v>0.0030132236064379725</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0019938142265953232</v>
+        <v>-0.0031278679690335673</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0004680482404732143</v>
+        <v>-0.0058442056531220043</v>
       </c>
       <c r="I6" s="0">
-        <v>0.02538125956147249</v>
+        <v>-0.077419097180313451</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0077647121483919168</v>
+        <v>0.0027467790255489288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.10634963530953398</v>
+        <v>0.077195746484572475</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.10544650298569125</v>
+        <v>0.29164394579129699</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00042242441974164391</v>
+        <v>-0.011753063100178197</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0040686572903127572</v>
+        <v>-0.10394381788062038</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0014189276876288683</v>
+        <v>0.0048991880279565993</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.8233819425085195e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0012926714065824281</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0057934023806172907</v>
+        <v>-0.043530715747426896</v>
       </c>
     </row>
     <row r="8">
